--- a/data/trans_dic/P7B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 16 años</t>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 29,88</t>
+          <t>6,83; 21,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 38,49</t>
+          <t>8,54; 22,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,82; 34,07</t>
+          <t>12,52; 23,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 22,38</t>
+          <t>12,2; 21,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,66; 37,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 19,32</t>
+          <t>12,56; 28,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 23,64</t>
+          <t>15,5; 29,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 24,62</t>
+          <t>16,4; 26,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 23,13</t>
+          <t>16,33; 24,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,41; 26,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,79</t>
+          <t>11,75; 22,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,38; 27,43</t>
+          <t>14,59; 24,96</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>19,17; 26,78</t>
+          <t>16,11; 23,09</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 21,37</t>
+          <t>15,22; 21,53</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>22,83; 30,02</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,81; 39,06</t>
+          <t>27,08; 41,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,33; 38,39</t>
+          <t>27,97; 40,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,22; 38,66</t>
+          <t>31,0; 41,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,64; 39,63</t>
+          <t>29,87; 39,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,39; 39,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,23; 42,31</t>
+          <t>33,72; 45,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,66; 44,0</t>
+          <t>36,55; 47,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,92; 43,61</t>
+          <t>36,06; 44,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,36; 41,46</t>
+          <t>33,67; 41,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,04; 47,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34,19; 39,88</t>
+          <t>32,29; 41,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,36; 39,78</t>
+          <t>33,78; 42,13</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>34,03; 39,9</t>
+          <t>34,21; 41,21</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>32,58; 38,87</t>
+          <t>32,77; 39,2</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>35,24; 41,9</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>37,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,91%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,17%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,68; 43,03</t>
+          <t>30,55; 44,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,47; 42,54</t>
+          <t>32,5; 45,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,46; 38,74</t>
+          <t>30,52; 40,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,45; 40,0</t>
+          <t>30,44; 39,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,92; 37,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,16; 48,82</t>
+          <t>38,58; 51,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,37; 49,64</t>
+          <t>40,29; 51,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,0; 48,06</t>
+          <t>39,07; 48,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,71; 48,08</t>
+          <t>39,41; 47,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>29,32; 41,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,6; 44,46</t>
+          <t>36,66; 46,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,07; 44,78</t>
+          <t>38,26; 47,23</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>36,5; 42,88</t>
+          <t>36,95; 43,93</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>36,14; 42,53</t>
+          <t>36,3; 42,43</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>26,87; 36,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,2%</t>
+          <t>30,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>31,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,26; 36,01</t>
+          <t>30,68; 38,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,05; 36,85</t>
+          <t>30,53; 41,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,55; 35,31</t>
+          <t>28,27; 40,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,95; 33,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,56; 36,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,47; 37,07</t>
+          <t>29,07; 35,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,31; 38,99</t>
+          <t>26,35; 34,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,42; 38,22</t>
+          <t>27,33; 37,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,19; 37,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,9; 36,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,22; 36,03</t>
+          <t>31,51; 36,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,66; 36,86</t>
+          <t>29,73; 36,14</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>32,33; 36,02</t>
+          <t>29,08; 36,96</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 34,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>30,89; 35,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33,45%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33,6%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30,78%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35,93%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34,73%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>34,12%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>32,94%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30,56; 36,47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30,45; 37,43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29,48; 35,24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28,16; 33,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32,28; 37,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,54; 38,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33,69; 38,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32,81; 37,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>32,32; 35,9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,44; 36,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>32,48; 36,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>30,97; 34,76</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29943</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50558</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>90722</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>119274</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49796</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>93592</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>133388</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>177399</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>79739</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>144149</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>224110</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>296673</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15475; 49185</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28965; 77172</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>65821; 123759</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>88291; 155621</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32876; 73573</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65370; 124187</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>104440; 168413</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>145980; 222507</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57345; 110832</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>111004; 189893</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>187275; 268400</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>246218; 348305</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>219376</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>313136</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>427599</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>557501</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>282381</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>413785</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>490996</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>562065</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>501758</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>726921</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>918595</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1119566</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>176266; 268604</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>260236; 379418</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>372293; 502618</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>483427; 638941</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>241151; 322930</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>364308; 469084</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>441371; 544385</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>504819; 617885</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>441039; 564413</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>650946; 811884</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>829756; 999551</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1021599; 1222234</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>171164</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>276997</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>300045</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>379510</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>237366</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>355348</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>410011</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>504104</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>408530</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>632345</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>710055</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>883613</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>139202; 202460</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>232582; 325231</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>256422; 341192</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>331749; 428007</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>205110; 272024</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>309891; 397632</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>364967; 451247</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>456089; 552045</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>362000; 454588</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>568126; 701238</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>655543; 779495</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>815768; 953571</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>573.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>315.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>732611</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>510834</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>287056</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>680269</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>420133</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>242257</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1412880</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>930968</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>529313</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>648709; 813133</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>440368; 598334</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>243171; 345706</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>607451; 743617</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>367363; 474485</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>207340; 283480</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1324618; 1528691</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>843346; 1025034</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>470656; 598284</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>429.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>569.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>600.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>611.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>999.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>858.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1029.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1025.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1153095</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1151525</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1105421</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1056285</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1249812</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1282857</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1276652</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1243567</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2402907</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2434382</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2382073</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2299852</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1053481; 1257295</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1043775; 1283060</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1010281; 1207645</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>966274; 1162370</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1161623; 1332229</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1201102; 1373023</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1197145; 1378299</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1164982; 1334454</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2277322; 2529131</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2273425; 2581107</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2267007; 2513089</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2162864; 2427248</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>